--- a/tools/dora/RTS/RTS-DORA-ICT-risk-management.xlsx
+++ b/tools/dora/RTS/RTS-DORA-ICT-risk-management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA43E6D-81F7-4D43-9266-E9877AF96572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B32210-1BC5-7244-BEA9-DE0DF99C69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="1184">
   <si>
     <t>Depth</t>
   </si>
@@ -2362,9 +2362,6 @@
     <t>EUROPEAN COMMISSION</t>
   </si>
   <si>
-    <t>Regulatory Technical Standards (RTS) on ICT risk management framework and on simplified ICT risk management framework</t>
-  </si>
-  <si>
     <t>urn:intuitem:risk:library:rts-dora-ict-risk-management</t>
   </si>
   <si>
@@ -2413,18 +2410,6 @@
     <t>2.2.c.i</t>
   </si>
   <si>
-    <t>(a) encryption and cryptography;</t>
-  </si>
-  <si>
-    <t>(b) ICT operations security;</t>
-  </si>
-  <si>
-    <t>(c) network security;</t>
-  </si>
-  <si>
-    <t>(d) ICT project and change management;</t>
-  </si>
-  <si>
     <t>6.2.b</t>
   </si>
   <si>
@@ -2474,9 +2459,6 @@
   </si>
   <si>
     <t>When developing and implementing the ICT security policies, procedures, protocols and tools referred to in Title II and the simplified ICT risk management framework referred to in Title III, the size and the overall risk profile of the financial entity, and the nature, scale and elements of increased or reduced complexity of its services, activities and operations shall be taken into account, including elements relating to:</t>
-  </si>
-  <si>
-    <t>(e) the potential impact of the ICT risk on confidentiality, integrity and availability of data, and of the disruptions on the continuity and availability of the financial entity’s activities.</t>
   </si>
   <si>
     <t>an indication of the approval of the risk tolerance level for ICT risk established in accordance with Article 6(8), point (b), of Regulation (EU) 2022/2554;</t>
@@ -3591,6 +3573,39 @@
   </si>
   <si>
     <t>for financial entities other than microenterprises as referred to in Article 6(6) of Regulation (EU) 2022/2554, the results of internal audits;</t>
+  </si>
+  <si>
+    <t>RTS on ICT risk management framework and on simplified ICT risk management framework</t>
+  </si>
+  <si>
+    <t>1.a</t>
+  </si>
+  <si>
+    <t>1.b</t>
+  </si>
+  <si>
+    <t>1.c</t>
+  </si>
+  <si>
+    <t>1.d</t>
+  </si>
+  <si>
+    <t>1.e</t>
+  </si>
+  <si>
+    <t>encryption and cryptography;</t>
+  </si>
+  <si>
+    <t>ICT operations security;</t>
+  </si>
+  <si>
+    <t>network security;</t>
+  </si>
+  <si>
+    <t>ICT project and change management;</t>
+  </si>
+  <si>
+    <t>the potential impact of the ICT risk on confidentiality, integrity and availability of data, and of the disruptions on the continuity and availability of the financial entity’s activities.</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4218,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4218,7 +4233,7 @@
         <v>751</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="38"/>
@@ -4254,7 +4269,7 @@
         <v>755</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="40"/>
@@ -4266,7 +4281,7 @@
         <v>756</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>769</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="40"/>
@@ -4278,7 +4293,7 @@
         <v>757</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="40"/>
@@ -4326,7 +4341,7 @@
         <v>762</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C10" s="43"/>
     </row>
@@ -4335,7 +4350,7 @@
         <v>763</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C11" s="43"/>
     </row>
@@ -4344,7 +4359,7 @@
         <v>764</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>769</v>
+        <v>1173</v>
       </c>
       <c r="C12" s="43"/>
     </row>
@@ -4353,7 +4368,7 @@
         <v>765</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C13" s="43"/>
     </row>
@@ -4362,7 +4377,7 @@
         <v>766</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>767</v>
@@ -4387,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
   <dimension ref="A1:G710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A341" sqref="A341:XFD341"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4419,9 +4434,8 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>140</v>
@@ -4432,8 +4446,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -4450,7 +4463,7 @@
       <c r="C4" s="46"/>
       <c r="D4" s="49"/>
       <c r="E4" s="49" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4460,10 +4473,12 @@
       <c r="B5" s="48">
         <v>4</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="46" t="s">
+        <v>1174</v>
+      </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49" t="s">
-        <v>786</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4473,10 +4488,12 @@
       <c r="B6" s="48">
         <v>4</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="46" t="s">
+        <v>1175</v>
+      </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49" t="s">
-        <v>787</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4486,10 +4503,12 @@
       <c r="B7" s="48">
         <v>4</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="46" t="s">
+        <v>1176</v>
+      </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49" t="s">
-        <v>788</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4499,10 +4518,12 @@
       <c r="B8" s="48">
         <v>4</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>1177</v>
+      </c>
       <c r="D8" s="49"/>
       <c r="E8" s="50" t="s">
-        <v>789</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -4512,10 +4533,12 @@
       <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="46" t="s">
+        <v>1178</v>
+      </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49" t="s">
-        <v>807</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -4523,12 +4546,11 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
       <c r="D10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4536,12 +4558,11 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="5" t="s">
         <v>143</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4549,8 +4570,7 @@
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="5"/>
@@ -4560,8 +4580,7 @@
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4666,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
@@ -4681,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
@@ -4696,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
@@ -4711,7 +4730,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
@@ -4873,9 +4892,8 @@
       <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5" t="s">
-        <v>778</v>
+      <c r="C34" s="5" t="s">
+        <v>777</v>
       </c>
       <c r="E34" s="5"/>
     </row>
@@ -4884,8 +4902,7 @@
       <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="25" t="s">
@@ -4917,7 +4934,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -4947,7 +4964,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -4962,7 +4979,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -4977,7 +4994,7 @@
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -4992,7 +5009,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5037,7 +5054,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5067,7 +5084,7 @@
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,7 +5099,7 @@
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,7 +5144,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5187,7 +5204,7 @@
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -5202,7 +5219,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="24" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -5241,7 +5258,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5254,7 +5271,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5262,12 +5279,11 @@
       <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -5275,8 +5291,7 @@
       <c r="B62" s="2">
         <v>4</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -5295,7 +5310,7 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -5325,7 +5340,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -5385,7 +5400,7 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -5430,7 +5445,7 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -5445,7 +5460,7 @@
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -5460,7 +5475,7 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5475,7 +5490,7 @@
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5490,7 +5505,7 @@
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -5498,8 +5513,7 @@
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -5518,7 +5532,7 @@
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5533,7 +5547,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -5548,7 +5562,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5563,7 +5577,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,9 +5585,8 @@
       <c r="B82" s="2">
         <v>3</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="5" t="s">
-        <v>779</v>
+      <c r="C82" s="5" t="s">
+        <v>778</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>220</v>
@@ -5584,8 +5597,7 @@
       <c r="B83" s="2">
         <v>4</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -5604,7 +5616,7 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5619,7 +5631,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -5645,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
@@ -5660,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
@@ -5675,11 +5687,11 @@
         <v>6</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
@@ -5692,7 +5704,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="5"/>
       <c r="E90" s="24" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="90" x14ac:dyDescent="0.2">
@@ -5707,7 +5719,7 @@
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="90" x14ac:dyDescent="0.2">
@@ -5722,7 +5734,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5737,7 +5749,7 @@
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,8 +5757,7 @@
       <c r="B94" s="2">
         <v>4</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -5765,7 +5776,7 @@
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -5780,7 +5791,7 @@
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5795,7 +5806,7 @@
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5810,7 +5821,7 @@
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -5825,7 +5836,7 @@
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -5833,8 +5844,7 @@
       <c r="B100" s="2">
         <v>3</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>227</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -5846,8 +5856,7 @@
       <c r="B101" s="2">
         <v>4</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -5866,7 +5875,7 @@
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -5911,7 +5920,7 @@
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="30" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -5926,7 +5935,7 @@
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="30" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5941,7 +5950,7 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="30" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -5986,7 +5995,7 @@
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6016,7 +6025,7 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6031,7 +6040,7 @@
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="30" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6046,7 +6055,7 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="30" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6061,7 +6070,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6106,7 +6115,7 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6121,7 +6130,7 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6134,7 +6143,7 @@
       <c r="C120" s="2"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.2">
@@ -6147,7 +6156,7 @@
       <c r="C121" s="2"/>
       <c r="D121" s="5"/>
       <c r="E121" s="31" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,8 +6164,7 @@
       <c r="B122" s="2">
         <v>4</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -6175,7 +6183,7 @@
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6280,7 +6288,7 @@
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -6288,8 +6296,7 @@
       <c r="B131" s="2">
         <v>4</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -6308,7 +6315,7 @@
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -6338,7 +6345,7 @@
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="30" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -6353,7 +6360,7 @@
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="30" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,7 +6378,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>92</v>
       </c>
@@ -6383,7 +6390,7 @@
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6398,7 +6405,7 @@
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -6416,7 +6423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>92</v>
       </c>
@@ -6428,7 +6435,7 @@
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6443,7 +6450,7 @@
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -6458,7 +6465,7 @@
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6491,7 +6498,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>92</v>
       </c>
@@ -6503,10 +6510,10 @@
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>92</v>
       </c>
@@ -6516,7 +6523,7 @@
       <c r="C146" s="2"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6529,7 +6536,7 @@
       <c r="C147" s="2"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.2">
@@ -6542,7 +6549,7 @@
       <c r="C148" s="2"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -6555,7 +6562,7 @@
       <c r="C149" s="2"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6570,7 +6577,7 @@
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -6600,7 +6607,7 @@
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6630,7 +6637,7 @@
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6645,7 +6652,7 @@
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -6653,8 +6660,7 @@
       <c r="B156" s="2">
         <v>4</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E156" s="25" t="s">
@@ -6673,7 +6679,7 @@
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -6688,7 +6694,7 @@
       </c>
       <c r="D158" s="53"/>
       <c r="E158" s="53" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6703,7 +6709,7 @@
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6718,7 +6724,7 @@
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6733,7 +6739,7 @@
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -6763,7 +6769,7 @@
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6778,7 +6784,7 @@
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F164" t="s">
         <v>742</v>
@@ -6796,7 +6802,7 @@
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F165" t="s">
         <v>741</v>
@@ -6814,7 +6820,7 @@
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6829,7 +6835,7 @@
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6844,7 +6850,7 @@
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6859,7 +6865,7 @@
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6874,7 +6880,7 @@
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -6942,7 +6948,7 @@
       <c r="C175" s="2"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="75" x14ac:dyDescent="0.2">
@@ -6955,7 +6961,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -6989,8 +6995,7 @@
       <c r="B179" s="2">
         <v>4</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="5" t="s">
+      <c r="C179" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E179" s="25" t="s">
@@ -7009,7 +7014,7 @@
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -7024,7 +7029,7 @@
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7039,7 +7044,7 @@
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7054,7 +7059,7 @@
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7084,7 +7089,7 @@
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7159,7 +7164,7 @@
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="32" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7189,7 +7194,7 @@
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="24" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7201,7 +7206,7 @@
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7209,8 +7214,7 @@
       <c r="B194" s="3">
         <v>3</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>325</v>
       </c>
       <c r="E194" s="7" t="s">
@@ -7222,8 +7226,7 @@
       <c r="B195" s="3">
         <v>4</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E195" s="7" t="s">
@@ -7242,7 +7245,7 @@
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="7" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7257,7 +7260,7 @@
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="7" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7272,7 +7275,7 @@
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="7" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7287,7 +7290,7 @@
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="7" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -7302,7 +7305,7 @@
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="7" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7317,7 +7320,7 @@
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="7" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -7332,7 +7335,7 @@
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="7" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7347,7 +7350,7 @@
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="7" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -7362,7 +7365,7 @@
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="7" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7377,7 +7380,7 @@
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="7" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7392,7 +7395,7 @@
       </c>
       <c r="D206" s="5"/>
       <c r="E206" s="7" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7407,7 +7410,7 @@
       </c>
       <c r="D207" s="5"/>
       <c r="E207" s="7" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7422,7 +7425,7 @@
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="7" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -7437,7 +7440,7 @@
       </c>
       <c r="D209" s="5"/>
       <c r="E209" s="7" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7452,7 +7455,7 @@
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="7" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -7467,7 +7470,7 @@
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="7" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -7497,7 +7500,7 @@
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="7" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7512,7 +7515,7 @@
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="7" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="75" x14ac:dyDescent="0.2">
@@ -7525,7 +7528,7 @@
       <c r="C215" s="4"/>
       <c r="D215" s="5"/>
       <c r="E215" s="7" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -7533,8 +7536,7 @@
       <c r="B216" s="3">
         <v>4</v>
       </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="5" t="s">
+      <c r="C216" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E216" s="7" t="s">
@@ -7553,7 +7555,7 @@
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="7" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7568,7 +7570,7 @@
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="7" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7583,7 +7585,7 @@
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="7" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7598,7 +7600,7 @@
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="7" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7613,7 +7615,7 @@
       </c>
       <c r="D221" s="5"/>
       <c r="E221" s="7" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -7621,8 +7623,7 @@
       <c r="B222" s="3">
         <v>3</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="5" t="s">
+      <c r="C222" s="5" t="s">
         <v>330</v>
       </c>
       <c r="E222" s="7" t="s">
@@ -7634,8 +7635,7 @@
       <c r="B223" s="3">
         <v>4</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="5" t="s">
+      <c r="C223" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E223" s="7" t="s">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="7" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="D225" s="5"/>
       <c r="E225" s="7" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="D226" s="5"/>
       <c r="E226" s="7" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="7" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="7" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="7" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="7" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -7857,8 +7857,7 @@
       <c r="B238" s="3">
         <v>4</v>
       </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="5" t="s">
+      <c r="C238" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E238" s="7" t="s">
@@ -7877,7 +7876,7 @@
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="7" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7892,7 +7891,7 @@
       </c>
       <c r="D240" s="5"/>
       <c r="E240" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -7922,7 +7921,7 @@
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="7" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -7937,7 +7936,7 @@
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7952,10 +7951,10 @@
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="7" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>92</v>
       </c>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="7" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -7980,7 +7979,7 @@
       <c r="C246" s="4"/>
       <c r="D246" s="5"/>
       <c r="E246" s="7" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -8032,7 +8031,7 @@
       <c r="C250" s="4"/>
       <c r="D250" s="5"/>
       <c r="E250" s="7" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -8045,7 +8044,7 @@
       <c r="C251" s="4"/>
       <c r="D251" s="5"/>
       <c r="E251" s="7" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -8112,7 +8111,7 @@
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="7" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8172,7 +8171,7 @@
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="7" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -8202,7 +8201,7 @@
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="7" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8232,7 +8231,7 @@
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="7" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -8247,7 +8246,7 @@
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -8262,7 +8261,7 @@
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="7" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -8277,7 +8276,7 @@
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="35" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8285,8 +8284,7 @@
       <c r="B268" s="3">
         <v>4</v>
       </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="5" t="s">
+      <c r="C268" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E268" s="34" t="s">
@@ -8305,7 +8303,7 @@
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="7" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -8335,7 +8333,7 @@
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="7" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -8436,7 +8434,7 @@
         <v>7</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="7" t="s">
@@ -8485,7 +8483,7 @@
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="7" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -8500,7 +8498,7 @@
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="7" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8515,7 +8513,7 @@
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="7" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8530,7 +8528,7 @@
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="7" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8545,7 +8543,7 @@
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="7" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8558,7 +8556,7 @@
       <c r="C286" s="4"/>
       <c r="D286" s="5"/>
       <c r="E286" s="7" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -8571,7 +8569,7 @@
       <c r="C287" s="4"/>
       <c r="D287" s="5"/>
       <c r="E287" s="7" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -8584,7 +8582,7 @@
       <c r="C288" s="4"/>
       <c r="D288" s="5"/>
       <c r="E288" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -8597,7 +8595,7 @@
       <c r="C289" s="4"/>
       <c r="D289" s="5"/>
       <c r="E289" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8610,7 +8608,7 @@
       <c r="C290" s="4"/>
       <c r="D290" s="5"/>
       <c r="E290" s="7" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -8636,7 +8634,7 @@
       <c r="C292" s="4"/>
       <c r="D292" s="5"/>
       <c r="E292" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -8649,7 +8647,7 @@
       <c r="C293" s="4"/>
       <c r="D293" s="5"/>
       <c r="E293" s="7" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -8662,7 +8660,7 @@
       <c r="C294" s="4"/>
       <c r="D294" s="5"/>
       <c r="E294" s="7" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8675,7 +8673,7 @@
       <c r="C295" s="4"/>
       <c r="D295" s="5"/>
       <c r="E295" s="7" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -8683,9 +8681,8 @@
       <c r="B296" s="3">
         <v>3</v>
       </c>
-      <c r="C296" s="4"/>
-      <c r="D296" s="5" t="s">
-        <v>777</v>
+      <c r="C296" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="E296" s="7"/>
     </row>
@@ -8694,8 +8691,7 @@
       <c r="B297" s="3">
         <v>4</v>
       </c>
-      <c r="C297" s="4"/>
-      <c r="D297" s="5" t="s">
+      <c r="C297" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E297" s="7" t="s">
@@ -8729,7 +8725,7 @@
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="7" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8744,7 +8740,7 @@
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="7" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -8759,7 +8755,7 @@
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="7" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8774,7 +8770,7 @@
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="7" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8804,7 +8800,7 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="7" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -8847,7 +8843,7 @@
       <c r="C307" s="4"/>
       <c r="D307" s="5"/>
       <c r="E307" s="7" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8860,7 +8856,7 @@
       <c r="C308" s="4"/>
       <c r="D308" s="5"/>
       <c r="E308" s="7" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -8868,7 +8864,6 @@
       <c r="B309" s="3">
         <v>2</v>
       </c>
-      <c r="C309" s="4"/>
       <c r="D309" s="5" t="s">
         <v>651</v>
       </c>
@@ -8881,8 +8876,7 @@
       <c r="B310" s="3">
         <v>3</v>
       </c>
-      <c r="C310" s="4"/>
-      <c r="D310" s="5" t="s">
+      <c r="C310" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E310" s="7" t="s">
@@ -8899,7 +8893,7 @@
       <c r="C311" s="4"/>
       <c r="D311" s="5"/>
       <c r="E311" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -8929,7 +8923,7 @@
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="7" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -8944,7 +8938,7 @@
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="7" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -8959,7 +8953,7 @@
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="7" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -8974,7 +8968,7 @@
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="7" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -8982,15 +8976,14 @@
       <c r="B317" s="3">
         <v>3</v>
       </c>
-      <c r="C317" s="4"/>
-      <c r="D317" s="5" t="s">
+      <c r="C317" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E317" s="7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>92</v>
       </c>
@@ -9002,7 +8995,7 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="30" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -9017,7 +9010,7 @@
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="30" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -9032,7 +9025,7 @@
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="30" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -9047,7 +9040,7 @@
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="30" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -9060,7 +9053,7 @@
       <c r="C322" s="19"/>
       <c r="D322" s="5"/>
       <c r="E322" s="30" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F322" s="37"/>
       <c r="G322" s="37"/>
@@ -9075,7 +9068,7 @@
       <c r="C323" s="4"/>
       <c r="D323" s="5"/>
       <c r="E323" s="7" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -9083,8 +9076,7 @@
       <c r="B324" s="3">
         <v>3</v>
       </c>
-      <c r="C324" s="4"/>
-      <c r="D324" s="5" t="s">
+      <c r="C324" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E324" s="7" t="s">
@@ -9101,7 +9093,7 @@
       <c r="C325" s="4"/>
       <c r="D325" s="5"/>
       <c r="E325" s="7" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -9116,7 +9108,7 @@
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="7" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -9131,7 +9123,7 @@
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -9146,7 +9138,7 @@
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -9161,7 +9153,7 @@
       </c>
       <c r="D329" s="5"/>
       <c r="E329" s="7" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -9176,7 +9168,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="7" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -9191,7 +9183,7 @@
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="7" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -9206,7 +9198,7 @@
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="7" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -9221,7 +9213,7 @@
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="7" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -9236,7 +9228,7 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="7" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -9266,7 +9258,7 @@
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="7" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -9281,7 +9273,7 @@
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="7" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -9311,7 +9303,7 @@
       </c>
       <c r="D339" s="5"/>
       <c r="E339" s="7" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9326,7 +9318,7 @@
       </c>
       <c r="D340" s="5"/>
       <c r="E340" s="7" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="341" spans="1:5" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -9341,7 +9333,7 @@
       </c>
       <c r="D341" s="56"/>
       <c r="E341" s="17" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -9356,7 +9348,7 @@
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="7" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -9369,7 +9361,7 @@
       <c r="C343" s="4"/>
       <c r="D343" s="5"/>
       <c r="E343" s="7" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -9382,7 +9374,7 @@
       <c r="C344" s="4"/>
       <c r="D344" s="5"/>
       <c r="E344" s="7" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -9416,7 +9408,6 @@
       <c r="B347" s="3">
         <v>2</v>
       </c>
-      <c r="C347" s="4"/>
       <c r="D347" s="5" t="s">
         <v>50</v>
       </c>
@@ -9429,8 +9420,7 @@
       <c r="B348" s="3">
         <v>3</v>
       </c>
-      <c r="C348" s="4"/>
-      <c r="D348" s="5" t="s">
+      <c r="C348" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E348" s="7" t="s">
@@ -9447,7 +9437,7 @@
       <c r="C349" s="4"/>
       <c r="D349" s="5"/>
       <c r="E349" s="7" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -9462,7 +9452,7 @@
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="7" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9477,7 +9467,7 @@
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="7" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -9503,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D353" s="5"/>
       <c r="E353" s="7" t="s">
@@ -9518,7 +9508,7 @@
         <v>6</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="7" t="s">
@@ -9537,7 +9527,7 @@
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="7" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="75" x14ac:dyDescent="0.2">
@@ -9552,7 +9542,7 @@
       </c>
       <c r="D356" s="5"/>
       <c r="E356" s="7" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9567,7 +9557,7 @@
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="7" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9588,8 +9578,7 @@
       <c r="B359" s="3">
         <v>3</v>
       </c>
-      <c r="C359" s="4"/>
-      <c r="D359" s="5" t="s">
+      <c r="C359" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E359" s="7" t="s">
@@ -9608,7 +9597,7 @@
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="7" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9623,7 +9612,7 @@
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="7" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -9653,7 +9642,7 @@
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="7" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9668,7 +9657,7 @@
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9683,7 +9672,7 @@
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="7" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9698,7 +9687,7 @@
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="7" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9713,7 +9702,7 @@
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9728,7 +9717,7 @@
       </c>
       <c r="D368" s="5"/>
       <c r="E368" s="7" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -9741,7 +9730,7 @@
       <c r="C369" s="4"/>
       <c r="D369" s="5"/>
       <c r="E369" s="7" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9756,7 +9745,7 @@
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="7" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -9771,7 +9760,7 @@
       </c>
       <c r="D371" s="5"/>
       <c r="E371" s="7" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -9801,7 +9790,7 @@
       </c>
       <c r="D373" s="5"/>
       <c r="E373" s="7" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -9831,7 +9820,7 @@
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="7" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9846,7 +9835,7 @@
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -9861,7 +9850,7 @@
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="7" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -9906,7 +9895,7 @@
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -9914,7 +9903,6 @@
       <c r="B381" s="3">
         <v>2</v>
       </c>
-      <c r="C381" s="4"/>
       <c r="D381" s="5" t="s">
         <v>513</v>
       </c>
@@ -9927,8 +9915,7 @@
       <c r="B382" s="3">
         <v>3</v>
       </c>
-      <c r="C382" s="4"/>
-      <c r="D382" s="5" t="s">
+      <c r="C382" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E382" s="7" t="s">
@@ -9947,7 +9934,7 @@
       </c>
       <c r="D383" s="5"/>
       <c r="E383" s="7" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -9977,7 +9964,7 @@
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="7" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -9992,7 +9979,7 @@
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="7" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -10007,7 +9994,7 @@
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="7" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10022,7 +10009,7 @@
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="7" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -10052,7 +10039,7 @@
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="7" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10067,7 +10054,7 @@
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="7" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -10082,7 +10069,7 @@
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="7" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10097,7 +10084,7 @@
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="7" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10112,7 +10099,7 @@
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="7" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10127,7 +10114,7 @@
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="7" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10142,7 +10129,7 @@
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="7" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -10172,7 +10159,7 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="7" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10187,7 +10174,7 @@
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="7" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10202,7 +10189,7 @@
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="7" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -10217,7 +10204,7 @@
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="24" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10232,7 +10219,7 @@
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="7" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -10262,7 +10249,7 @@
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="7" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10277,7 +10264,7 @@
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="7" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10292,7 +10279,7 @@
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="7" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10307,7 +10294,7 @@
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="7" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10320,7 +10307,7 @@
       <c r="C408" s="4"/>
       <c r="D408" s="5"/>
       <c r="E408" s="7" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10333,7 +10320,7 @@
       <c r="C409" s="4"/>
       <c r="D409" s="5"/>
       <c r="E409" s="7" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10346,7 +10333,7 @@
       <c r="C410" s="4"/>
       <c r="D410" s="5"/>
       <c r="E410" s="7" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10361,7 +10348,7 @@
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="7" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10376,7 +10363,7 @@
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="7" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10391,7 +10378,7 @@
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="7" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10406,7 +10393,7 @@
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="7" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -10436,7 +10423,7 @@
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="7" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -10444,8 +10431,7 @@
       <c r="B417" s="3">
         <v>3</v>
       </c>
-      <c r="C417" s="4"/>
-      <c r="D417" s="5" t="s">
+      <c r="C417" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E417" s="12" t="s">
@@ -10464,7 +10450,7 @@
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="7" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10479,7 +10465,7 @@
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="7" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10509,7 +10495,7 @@
       </c>
       <c r="D421" s="5"/>
       <c r="E421" s="7" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10524,7 +10510,7 @@
       </c>
       <c r="D422" s="5"/>
       <c r="E422" s="7" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10539,7 +10525,7 @@
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="7" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10554,7 +10540,7 @@
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="7" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10567,7 +10553,7 @@
       <c r="C425" s="4"/>
       <c r="D425" s="5"/>
       <c r="E425" s="7" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10580,7 +10566,7 @@
       <c r="C426" s="4"/>
       <c r="D426" s="5"/>
       <c r="E426" s="7" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10608,7 +10594,7 @@
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="7" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -10653,7 +10639,7 @@
       </c>
       <c r="D431" s="5"/>
       <c r="E431" s="7" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10668,7 +10654,7 @@
       </c>
       <c r="D432" s="5"/>
       <c r="E432" s="7" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -10743,7 +10729,7 @@
       </c>
       <c r="D437" s="5"/>
       <c r="E437" s="7" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10758,7 +10744,7 @@
       </c>
       <c r="D438" s="5"/>
       <c r="E438" s="7" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -10766,8 +10752,7 @@
       <c r="B439" s="3">
         <v>3</v>
       </c>
-      <c r="C439" s="4"/>
-      <c r="D439" s="5" t="s">
+      <c r="C439" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E439" s="7" t="s">
@@ -10786,7 +10771,7 @@
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="7" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10816,7 +10801,7 @@
       </c>
       <c r="D442" s="5"/>
       <c r="E442" s="7" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10846,7 +10831,7 @@
       </c>
       <c r="D444" s="5"/>
       <c r="E444" s="7" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -10861,7 +10846,7 @@
       </c>
       <c r="D445" s="5"/>
       <c r="E445" s="7" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10876,7 +10861,7 @@
       </c>
       <c r="D446" s="5"/>
       <c r="E446" s="7" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -10889,7 +10874,7 @@
       <c r="C447" s="4"/>
       <c r="D447" s="5"/>
       <c r="E447" s="7" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -10904,7 +10889,7 @@
       </c>
       <c r="D448" s="5"/>
       <c r="E448" s="7" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10919,7 +10904,7 @@
       </c>
       <c r="D449" s="5"/>
       <c r="E449" s="7" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -10934,7 +10919,7 @@
       </c>
       <c r="D450" s="5"/>
       <c r="E450" s="7" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -10949,7 +10934,7 @@
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="7" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -10979,7 +10964,7 @@
       </c>
       <c r="D453" s="5"/>
       <c r="E453" s="7" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -10994,7 +10979,7 @@
       </c>
       <c r="D454" s="5"/>
       <c r="E454" s="7" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -11024,7 +11009,7 @@
       </c>
       <c r="D456" s="5"/>
       <c r="E456" s="7" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -11054,7 +11039,7 @@
       </c>
       <c r="D458" s="5"/>
       <c r="E458" s="7" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11069,7 +11054,7 @@
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="7" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -11077,12 +11062,11 @@
       <c r="B460" s="3">
         <v>2</v>
       </c>
-      <c r="C460" s="4"/>
       <c r="D460" s="5" t="s">
         <v>590</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -11090,8 +11074,7 @@
       <c r="B461" s="3">
         <v>3</v>
       </c>
-      <c r="C461" s="4"/>
-      <c r="D461" s="5" t="s">
+      <c r="C461" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E461" s="7" t="s">
@@ -11110,7 +11093,7 @@
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="7" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -11125,7 +11108,7 @@
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="7" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -11155,7 +11138,7 @@
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="7" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="75" x14ac:dyDescent="0.2">
@@ -11170,7 +11153,7 @@
       </c>
       <c r="D466" s="5"/>
       <c r="E466" s="7" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -11185,7 +11168,7 @@
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="7" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11200,7 +11183,7 @@
       </c>
       <c r="D468" s="5"/>
       <c r="E468" s="7" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -11215,7 +11198,7 @@
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="7" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11230,7 +11213,7 @@
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="7" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -11275,7 +11258,7 @@
       </c>
       <c r="D473" s="5"/>
       <c r="E473" s="7" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11290,7 +11273,7 @@
       </c>
       <c r="D474" s="5"/>
       <c r="E474" s="7" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11305,7 +11288,7 @@
       </c>
       <c r="D475" s="5"/>
       <c r="E475" s="7" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -11320,10 +11303,10 @@
       </c>
       <c r="D476" s="5"/>
       <c r="E476" s="7" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>92</v>
       </c>
@@ -11335,7 +11318,7 @@
       </c>
       <c r="D477" s="5"/>
       <c r="E477" s="7" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11350,10 +11333,10 @@
       </c>
       <c r="D478" s="5"/>
       <c r="E478" s="7" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
         <v>92</v>
       </c>
@@ -11365,7 +11348,7 @@
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="7" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -11380,7 +11363,7 @@
       </c>
       <c r="D480" s="5"/>
       <c r="E480" s="7" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11395,7 +11378,7 @@
       </c>
       <c r="D481" s="5"/>
       <c r="E481" s="7" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -11410,7 +11393,7 @@
       </c>
       <c r="D482" s="5"/>
       <c r="E482" s="7" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -11470,10 +11453,10 @@
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="7" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A487" s="6" t="s">
         <v>92</v>
       </c>
@@ -11485,7 +11468,7 @@
       </c>
       <c r="D487" s="5"/>
       <c r="E487" s="7" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -11500,7 +11483,7 @@
       </c>
       <c r="D488" s="5"/>
       <c r="E488" s="7" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11515,7 +11498,7 @@
       </c>
       <c r="D489" s="5"/>
       <c r="E489" s="7" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -11573,7 +11556,7 @@
       <c r="C493" s="4"/>
       <c r="D493" s="5"/>
       <c r="E493" s="7" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11586,7 +11569,7 @@
       <c r="C494" s="4"/>
       <c r="D494" s="5"/>
       <c r="E494" s="7" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11594,7 +11577,6 @@
       <c r="B495" s="3">
         <v>1</v>
       </c>
-      <c r="C495" s="4"/>
       <c r="D495" s="5" t="s">
         <v>601</v>
       </c>
@@ -11607,7 +11589,6 @@
       <c r="B496" s="3">
         <v>2</v>
       </c>
-      <c r="C496" s="4"/>
       <c r="D496" s="5" t="s">
         <v>143</v>
       </c>
@@ -11620,8 +11601,7 @@
       <c r="B497" s="3">
         <v>3</v>
       </c>
-      <c r="C497" s="4"/>
-      <c r="D497" s="5" t="s">
+      <c r="C497" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E497" s="7" t="s">
@@ -11640,7 +11620,7 @@
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="7" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11655,7 +11635,7 @@
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="7" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11670,7 +11650,7 @@
       </c>
       <c r="D500" s="5"/>
       <c r="E500" s="7" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -11730,7 +11710,7 @@
       </c>
       <c r="D504" s="5"/>
       <c r="E504" s="7" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11745,7 +11725,7 @@
       </c>
       <c r="D505" s="5"/>
       <c r="E505" s="7" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11760,7 +11740,7 @@
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="7" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11775,7 +11755,7 @@
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="7" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11790,7 +11770,7 @@
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="7" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11805,7 +11785,7 @@
       </c>
       <c r="D509" s="5"/>
       <c r="E509" s="7" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="510" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11820,7 +11800,7 @@
       </c>
       <c r="D510" s="5"/>
       <c r="E510" s="7" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -11835,7 +11815,7 @@
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="7" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11850,7 +11830,7 @@
       </c>
       <c r="D512" s="5"/>
       <c r="E512" s="7" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -11865,7 +11845,7 @@
       </c>
       <c r="D513" s="5"/>
       <c r="E513" s="7" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11880,7 +11860,7 @@
       </c>
       <c r="D514" s="5"/>
       <c r="E514" s="7" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -11888,8 +11868,7 @@
       <c r="B515" s="3">
         <v>3</v>
       </c>
-      <c r="C515" s="4"/>
-      <c r="D515" s="5" t="s">
+      <c r="C515" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E515" s="7" t="s">
@@ -11908,7 +11887,7 @@
       </c>
       <c r="D516" s="5"/>
       <c r="E516" s="7" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -11923,7 +11902,7 @@
       </c>
       <c r="D517" s="5"/>
       <c r="E517" s="7" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -11936,7 +11915,7 @@
       <c r="C518" s="4"/>
       <c r="D518" s="5"/>
       <c r="E518" s="7" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -11944,8 +11923,7 @@
       <c r="B519" s="3">
         <v>3</v>
       </c>
-      <c r="C519" s="4"/>
-      <c r="D519" s="5" t="s">
+      <c r="C519" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E519" s="7" t="s">
@@ -11964,7 +11942,7 @@
       </c>
       <c r="D520" s="5"/>
       <c r="E520" s="7" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -11979,7 +11957,7 @@
       </c>
       <c r="D521" s="5"/>
       <c r="E521" s="7" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -11987,8 +11965,7 @@
       <c r="B522" s="3">
         <v>3</v>
       </c>
-      <c r="C522" s="4"/>
-      <c r="D522" s="5" t="s">
+      <c r="C522" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E522" s="7" t="s">
@@ -12007,10 +11984,10 @@
       </c>
       <c r="D523" s="5"/>
       <c r="E523" s="7" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
         <v>92</v>
       </c>
@@ -12022,7 +11999,7 @@
       </c>
       <c r="D524" s="5"/>
       <c r="E524" s="7" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -12037,7 +12014,7 @@
       </c>
       <c r="D525" s="5"/>
       <c r="E525" s="7" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12052,7 +12029,7 @@
       </c>
       <c r="D526" s="5"/>
       <c r="E526" s="7" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -12067,7 +12044,7 @@
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="7" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12082,7 +12059,7 @@
       </c>
       <c r="D528" s="5"/>
       <c r="E528" s="7" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12097,7 +12074,7 @@
       </c>
       <c r="D529" s="5"/>
       <c r="E529" s="7" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12112,7 +12089,7 @@
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="7" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12127,7 +12104,7 @@
       </c>
       <c r="D531" s="5"/>
       <c r="E531" s="7" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12135,8 +12112,7 @@
       <c r="B532" s="3">
         <v>3</v>
       </c>
-      <c r="C532" s="4"/>
-      <c r="D532" s="5" t="s">
+      <c r="C532" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E532" s="29" t="s">
@@ -12155,7 +12131,7 @@
       </c>
       <c r="D533" s="5"/>
       <c r="E533" s="7" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="534" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12170,7 +12146,7 @@
       </c>
       <c r="D534" s="5"/>
       <c r="E534" s="7" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="535" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12185,7 +12161,7 @@
       </c>
       <c r="D535" s="5"/>
       <c r="E535" s="7" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -12193,12 +12169,11 @@
       <c r="B536" s="3">
         <v>2</v>
       </c>
-      <c r="C536" s="4"/>
       <c r="D536" s="5" t="s">
         <v>651</v>
       </c>
       <c r="E536" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -12206,8 +12181,7 @@
       <c r="B537" s="3">
         <v>3</v>
       </c>
-      <c r="C537" s="4"/>
-      <c r="D537" s="5" t="s">
+      <c r="C537" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E537" s="7" t="s">
@@ -12226,7 +12200,7 @@
       </c>
       <c r="D538" s="5"/>
       <c r="E538" s="7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12241,7 +12215,7 @@
       </c>
       <c r="D539" s="5"/>
       <c r="E539" s="7" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -12256,7 +12230,7 @@
       </c>
       <c r="D540" s="5"/>
       <c r="E540" s="7" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12271,7 +12245,7 @@
       </c>
       <c r="D541" s="5"/>
       <c r="E541" s="7" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12286,7 +12260,7 @@
       </c>
       <c r="D542" s="5"/>
       <c r="E542" s="7" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
@@ -12301,10 +12275,10 @@
       </c>
       <c r="D543" s="5"/>
       <c r="E543" s="7" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
         <v>92</v>
       </c>
@@ -12314,7 +12288,7 @@
       <c r="C544" s="4"/>
       <c r="D544" s="5"/>
       <c r="E544" s="7" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12327,7 +12301,7 @@
       <c r="C545" s="4"/>
       <c r="D545" s="5"/>
       <c r="E545" s="7" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
@@ -12335,8 +12309,7 @@
       <c r="B546" s="3">
         <v>3</v>
       </c>
-      <c r="C546" s="4"/>
-      <c r="D546" s="5" t="s">
+      <c r="C546" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E546" s="12" t="s">
@@ -12383,7 +12356,7 @@
       </c>
       <c r="D549" s="5"/>
       <c r="E549" s="7" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12398,7 +12371,7 @@
       </c>
       <c r="D550" s="5"/>
       <c r="E550" s="7" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12413,7 +12386,7 @@
       </c>
       <c r="D551" s="5"/>
       <c r="E551" s="7" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
@@ -12443,7 +12416,7 @@
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="17" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12458,7 +12431,7 @@
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="8" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
@@ -12473,7 +12446,7 @@
       </c>
       <c r="D555" s="5"/>
       <c r="E555" s="8" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12488,7 +12461,7 @@
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="8" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12509,8 +12482,7 @@
       <c r="B558" s="3">
         <v>3</v>
       </c>
-      <c r="C558" s="4"/>
-      <c r="D558" s="5" t="s">
+      <c r="C558" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E558" s="8" t="s">
@@ -12542,7 +12514,7 @@
       </c>
       <c r="D560" s="5"/>
       <c r="E560" s="8" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="561" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12557,7 +12529,7 @@
       </c>
       <c r="D561" s="5"/>
       <c r="E561" s="8" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12572,7 +12544,7 @@
       </c>
       <c r="D562" s="5"/>
       <c r="E562" s="8" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12587,7 +12559,7 @@
       </c>
       <c r="D563" s="5"/>
       <c r="E563" s="8" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12602,7 +12574,7 @@
       </c>
       <c r="D564" s="5"/>
       <c r="E564" s="8" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12617,7 +12589,7 @@
       </c>
       <c r="D565" s="5"/>
       <c r="E565" s="8" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12632,7 +12604,7 @@
       </c>
       <c r="D566" s="5"/>
       <c r="E566" s="8" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
@@ -12640,8 +12612,7 @@
       <c r="B567" s="3">
         <v>3</v>
       </c>
-      <c r="C567" s="4"/>
-      <c r="D567" s="5" t="s">
+      <c r="C567" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E567" s="8" t="s">
@@ -12660,7 +12631,7 @@
       </c>
       <c r="D568" s="5"/>
       <c r="E568" s="8" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12675,7 +12646,7 @@
       </c>
       <c r="D569" s="5"/>
       <c r="E569" s="8" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12690,7 +12661,7 @@
       </c>
       <c r="D570" s="5"/>
       <c r="E570" s="8" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
@@ -12698,8 +12669,7 @@
       <c r="B571" s="3">
         <v>3</v>
       </c>
-      <c r="C571" s="4"/>
-      <c r="D571" s="5" t="s">
+      <c r="C571" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E571" s="8" t="s">
@@ -12716,7 +12686,7 @@
       <c r="C572" s="4"/>
       <c r="D572" s="5"/>
       <c r="E572" s="8" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12731,7 +12701,7 @@
       </c>
       <c r="D573" s="5"/>
       <c r="E573" s="8" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12746,7 +12716,7 @@
       </c>
       <c r="D574" s="5"/>
       <c r="E574" s="8" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="575" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12761,7 +12731,7 @@
       </c>
       <c r="D575" s="5"/>
       <c r="E575" s="8" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
@@ -12769,8 +12739,7 @@
       <c r="B576" s="3">
         <v>3</v>
       </c>
-      <c r="C576" s="4"/>
-      <c r="D576" s="5" t="s">
+      <c r="C576" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E576" s="8" t="s">
@@ -12789,7 +12758,7 @@
       </c>
       <c r="D577" s="5"/>
       <c r="E577" s="8" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -12804,7 +12773,7 @@
       </c>
       <c r="D578" s="5"/>
       <c r="E578" s="8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
@@ -12812,7 +12781,6 @@
       <c r="B579" s="3">
         <v>2</v>
       </c>
-      <c r="C579" s="4"/>
       <c r="D579" s="5" t="s">
         <v>50</v>
       </c>
@@ -12825,8 +12793,7 @@
       <c r="B580" s="3">
         <v>3</v>
       </c>
-      <c r="C580" s="4"/>
-      <c r="D580" s="5" t="s">
+      <c r="C580" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E580" s="8" t="s">
@@ -12845,7 +12812,7 @@
       </c>
       <c r="D581" s="5"/>
       <c r="E581" s="8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
@@ -12920,7 +12887,7 @@
       </c>
       <c r="D586" s="5"/>
       <c r="E586" s="18" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="587" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12935,7 +12902,7 @@
       </c>
       <c r="D587" s="5"/>
       <c r="E587" s="18" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -12950,7 +12917,7 @@
       </c>
       <c r="D588" s="5"/>
       <c r="E588" s="7" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="589" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12965,7 +12932,7 @@
       </c>
       <c r="D589" s="5"/>
       <c r="E589" s="7" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="590" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -12980,7 +12947,7 @@
       </c>
       <c r="D590" s="5"/>
       <c r="E590" s="7" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
@@ -12995,7 +12962,7 @@
       </c>
       <c r="D591" s="5"/>
       <c r="E591" s="7" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="592" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -13010,7 +12977,7 @@
       </c>
       <c r="D592" s="5"/>
       <c r="E592" s="7" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="593" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -13023,7 +12990,7 @@
       <c r="C593" s="4"/>
       <c r="D593" s="5"/>
       <c r="E593" s="7" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
@@ -13031,8 +12998,7 @@
       <c r="B594" s="3">
         <v>3</v>
       </c>
-      <c r="C594" s="4"/>
-      <c r="D594" s="5" t="s">
+      <c r="C594" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E594" s="7" t="s">
@@ -13051,7 +13017,7 @@
       </c>
       <c r="D595" s="5"/>
       <c r="E595" s="7" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="596" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -13066,7 +13032,7 @@
       </c>
       <c r="D596" s="5"/>
       <c r="E596" s="7" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="597" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -13081,7 +13047,7 @@
       </c>
       <c r="D597" s="5"/>
       <c r="E597" s="7" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
@@ -13089,7 +13055,6 @@
       <c r="B598" s="3">
         <v>2</v>
       </c>
-      <c r="C598" s="4"/>
       <c r="D598" s="5" t="s">
         <v>513</v>
       </c>
@@ -13102,12 +13067,11 @@
       <c r="B599" s="3">
         <v>3</v>
       </c>
-      <c r="C599" s="4"/>
-      <c r="D599" s="5" t="s">
+      <c r="C599" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E599" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="600" spans="1:5" ht="45" x14ac:dyDescent="0.2">
@@ -13122,7 +13086,7 @@
       </c>
       <c r="D600" s="5"/>
       <c r="E600" s="7" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
@@ -13167,7 +13131,7 @@
       </c>
       <c r="D603" s="5"/>
       <c r="E603" s="7" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -13182,7 +13146,7 @@
       </c>
       <c r="D604" s="5"/>
       <c r="E604" s="7" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
@@ -13212,7 +13176,7 @@
       </c>
       <c r="D606" s="5"/>
       <c r="E606" s="7" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="607" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -13227,7 +13191,7 @@
       </c>
       <c r="D607" s="5"/>
       <c r="E607" s="7" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
@@ -13242,7 +13206,7 @@
       </c>
       <c r="D608" s="5"/>
       <c r="E608" s="7" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
@@ -13272,7 +13236,7 @@
       </c>
       <c r="D610" s="5"/>
       <c r="E610" s="7" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="611" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -13287,7 +13251,7 @@
       </c>
       <c r="D611" s="5"/>
       <c r="E611" s="7" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
@@ -13332,7 +13296,7 @@
       </c>
       <c r="D614" s="5"/>
       <c r="E614" s="7" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="60" x14ac:dyDescent="0.2">
@@ -13347,7 +13311,7 @@
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="8" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="616" spans="1:5" ht="30" x14ac:dyDescent="0.2">
@@ -13362,7 +13326,7 @@
       </c>
       <c r="D616" s="5"/>
       <c r="E616" s="7" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
@@ -13370,7 +13334,6 @@
       <c r="B617" s="3">
         <v>1</v>
       </c>
-      <c r="C617" s="4"/>
       <c r="D617" s="5" t="s">
         <v>723</v>
       </c>
@@ -13383,8 +13346,7 @@
       <c r="B618" s="3">
         <v>2</v>
       </c>
-      <c r="C618" s="4"/>
-      <c r="D618" s="5" t="s">
+      <c r="C618" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E618" s="7" t="s">

--- a/tools/dora/RTS/RTS-DORA-ICT-risk-management.xlsx
+++ b/tools/dora/RTS/RTS-DORA-ICT-risk-management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imanabshirali/Desktop/stage MAi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B32210-1BC5-7244-BEA9-DE0DF99C69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380A134-D279-4D48-B156-BB779550896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
@@ -4400,10 +4400,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C617" sqref="C617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4429,19 +4430,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>775</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -4453,7 +4454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>92</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>92</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>92</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>92</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>92</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>92</v>
       </c>
@@ -4546,14 +4547,14 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>2</v>
@@ -4565,7 +4566,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>3</v>
@@ -4575,7 +4576,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>4</v>
@@ -4587,7 +4588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>92</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>92</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>92</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>92</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>92</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>92</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>92</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>92</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>92</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>92</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>92</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>92</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>92</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>92</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>92</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="2">
         <v>3</v>
@@ -4897,7 +4898,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="2">
         <v>4</v>
@@ -4909,7 +4910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>92</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>92</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>92</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>92</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>92</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>92</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>92</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>92</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>92</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>92</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>92</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>92</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>92</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>92</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>92</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>92</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>92</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>92</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>92</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>92</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="2">
         <v>3</v>
@@ -5286,7 +5287,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="2">
         <v>4</v>
@@ -5298,7 +5299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>92</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>92</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>92</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>92</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>92</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>92</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>92</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>92</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>92</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>92</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>92</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>92</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>92</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="2">
         <v>4</v>
@@ -5520,7 +5521,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>92</v>
       </c>
@@ -5535,7 +5536,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>92</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>92</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>92</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="2">
         <v>3</v>
@@ -5592,7 +5593,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="2">
         <v>4</v>
@@ -5604,7 +5605,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>92</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>92</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>92</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>92</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>92</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>92</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>92</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>92</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="2">
         <v>4</v>
@@ -5764,7 +5765,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>92</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>92</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>92</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>92</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>92</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="2">
         <v>3</v>
@@ -5851,7 +5852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="2">
         <v>4</v>
@@ -5863,7 +5864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>92</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>92</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>92</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>92</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>92</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>92</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>92</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>92</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>92</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>92</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>92</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>92</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>92</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>92</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>92</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>92</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>92</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>92</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>92</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>92</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="2">
         <v>4</v>
@@ -6171,7 +6172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>92</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>92</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>92</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>92</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>92</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>92</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>92</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>92</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="2">
         <v>4</v>
@@ -6303,7 +6304,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>92</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>92</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>92</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>92</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>92</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>92</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>92</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>92</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>92</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>92</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>92</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>92</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>92</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>92</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>92</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>92</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>92</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>92</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>92</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>92</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>92</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>92</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>92</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>92</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="2">
         <v>4</v>
@@ -6667,7 +6668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>92</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="54" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" s="54" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="51" t="s">
         <v>92</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>92</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>92</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>92</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>92</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>92</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>92</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>92</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>92</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>92</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>92</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>92</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>92</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>92</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>92</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>92</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>92</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>92</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>92</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>92</v>
       </c>
@@ -6977,7 +6978,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>92</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="2">
         <v>4</v>
@@ -7002,7 +7003,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>92</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>92</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>92</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>92</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>92</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>92</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>92</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>92</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>92</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>92</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>92</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>92</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>92</v>
       </c>
@@ -7209,7 +7210,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6"/>
       <c r="B194" s="3">
         <v>3</v>
@@ -7221,7 +7222,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6"/>
       <c r="B195" s="3">
         <v>4</v>
@@ -7233,7 +7234,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>92</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>92</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>92</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>92</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>92</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>92</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>92</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>92</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>92</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>92</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>92</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>92</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>92</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>92</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>92</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>92</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>92</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>92</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>92</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>92</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6"/>
       <c r="B216" s="3">
         <v>4</v>
@@ -7543,7 +7544,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>92</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>92</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>92</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>92</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>92</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6"/>
       <c r="B222" s="3">
         <v>3</v>
@@ -7630,7 +7631,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6"/>
       <c r="B223" s="3">
         <v>4</v>
@@ -7642,7 +7643,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>92</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>92</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>92</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>92</v>
       </c>
@@ -7702,7 +7703,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>92</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>92</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>92</v>
       </c>
@@ -7747,7 +7748,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>92</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>92</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>92</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>92</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>92</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>92</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>92</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6"/>
       <c r="B238" s="3">
         <v>4</v>
@@ -7864,7 +7865,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>92</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>92</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>92</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>92</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>92</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>92</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>92</v>
       </c>
@@ -7969,7 +7970,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>92</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>92</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>92</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>92</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>92</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>92</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>92</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>92</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>92</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>92</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>92</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>92</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>92</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>92</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>92</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>92</v>
       </c>
@@ -8189,7 +8190,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>92</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>92</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>92</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>92</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>92</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>92</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6"/>
       <c r="B268" s="3">
         <v>4</v>
@@ -8291,7 +8292,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>92</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>92</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>92</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>92</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>92</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>92</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>92</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>92</v>
       </c>
@@ -8411,7 +8412,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>92</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>92</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>92</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>92</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>92</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>92</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>92</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>92</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>92</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>92</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>92</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>92</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>92</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>92</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>92</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>92</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>92</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>92</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>92</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6"/>
       <c r="B296" s="3">
         <v>3</v>
@@ -8686,7 +8687,7 @@
       </c>
       <c r="E296" s="7"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6"/>
       <c r="B297" s="3">
         <v>4</v>
@@ -8698,7 +8699,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>92</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>92</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>92</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>92</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>92</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>92</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>92</v>
       </c>
@@ -8803,7 +8804,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>92</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>92</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>92</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>92</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6"/>
       <c r="B309" s="3">
         <v>2</v>
@@ -8871,7 +8872,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6"/>
       <c r="B310" s="3">
         <v>3</v>
@@ -8883,7 +8884,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>92</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>92</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>92</v>
       </c>
@@ -8926,7 +8927,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>92</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>92</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>92</v>
       </c>
@@ -8971,7 +8972,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="B317" s="3">
         <v>3</v>
@@ -8983,7 +8984,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>92</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>92</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>92</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>92</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>92</v>
       </c>
@@ -9058,7 +9059,7 @@
       <c r="F322" s="37"/>
       <c r="G322" s="37"/>
     </row>
-    <row r="323" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>92</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6"/>
       <c r="B324" s="3">
         <v>3</v>
@@ -9083,7 +9084,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>92</v>
       </c>
@@ -9096,7 +9097,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>92</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>92</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>92</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>92</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>92</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>92</v>
       </c>
@@ -9186,7 +9187,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>92</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>92</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>92</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>92</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>92</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>92</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>92</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>92</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>92</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="341" spans="1:5" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" s="37" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="55" t="s">
         <v>92</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>92</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>92</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>92</v>
       </c>
@@ -9377,7 +9378,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>92</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>92</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="6"/>
       <c r="B347" s="3">
         <v>2</v>
@@ -9415,7 +9416,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="6"/>
       <c r="B348" s="3">
         <v>3</v>
@@ -9427,7 +9428,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>92</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>92</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>92</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>92</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>92</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>92</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>92</v>
       </c>
@@ -9530,7 +9531,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>92</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>92</v>
       </c>
@@ -9560,7 +9561,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>92</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="6"/>
       <c r="B359" s="3">
         <v>3</v>
@@ -9585,7 +9586,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>92</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>92</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>92</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>92</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>92</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>92</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>92</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>92</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>92</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>92</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>92</v>
       </c>
@@ -9748,7 +9749,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>92</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>92</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>92</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>92</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>92</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>92</v>
       </c>
@@ -9838,7 +9839,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>92</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>92</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>92</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>92</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6"/>
       <c r="B381" s="3">
         <v>2</v>
@@ -9910,7 +9911,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="6"/>
       <c r="B382" s="3">
         <v>3</v>
@@ -9922,7 +9923,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>92</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>92</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>92</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>92</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>92</v>
       </c>
@@ -9997,7 +9998,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>92</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>92</v>
       </c>
@@ -10027,7 +10028,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>92</v>
       </c>
@@ -10042,7 +10043,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>92</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>92</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>92</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>92</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>92</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>92</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>92</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>92</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>92</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>92</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>92</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>92</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>92</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>92</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>92</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>92</v>
       </c>
@@ -10282,7 +10283,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>92</v>
       </c>
@@ -10297,7 +10298,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>92</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>92</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>92</v>
       </c>
@@ -10336,7 +10337,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>92</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>92</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>92</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>92</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>92</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>92</v>
       </c>
@@ -10426,7 +10427,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6"/>
       <c r="B417" s="3">
         <v>3</v>
@@ -10438,7 +10439,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>92</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>92</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>92</v>
       </c>
@@ -10483,7 +10484,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>92</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>92</v>
       </c>
@@ -10513,7 +10514,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>92</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>92</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>92</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>92</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>92</v>
       </c>
@@ -10582,7 +10583,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>92</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>92</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>92</v>
       </c>
@@ -10627,7 +10628,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>92</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>92</v>
       </c>
@@ -10657,7 +10658,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>92</v>
       </c>
@@ -10672,7 +10673,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>92</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>92</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
         <v>92</v>
       </c>
@@ -10717,7 +10718,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="6" t="s">
         <v>92</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
         <v>92</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="6"/>
       <c r="B439" s="3">
         <v>3</v>
@@ -10759,7 +10760,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
         <v>92</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>92</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>92</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6" t="s">
         <v>92</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>92</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="6" t="s">
         <v>92</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6" t="s">
         <v>92</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6" t="s">
         <v>92</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6" t="s">
         <v>92</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="6" t="s">
         <v>92</v>
       </c>
@@ -10907,7 +10908,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="6" t="s">
         <v>92</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6" t="s">
         <v>92</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
         <v>92</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="6" t="s">
         <v>92</v>
       </c>
@@ -10967,7 +10968,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
         <v>92</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6" t="s">
         <v>92</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
         <v>92</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
         <v>92</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6" t="s">
         <v>92</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="6" t="s">
         <v>92</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6"/>
       <c r="B460" s="3">
         <v>2</v>
@@ -11069,7 +11070,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6"/>
       <c r="B461" s="3">
         <v>3</v>
@@ -11081,7 +11082,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="6" t="s">
         <v>92</v>
       </c>
@@ -11096,7 +11097,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="6" t="s">
         <v>92</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="6" t="s">
         <v>92</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="6" t="s">
         <v>92</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="6" t="s">
         <v>92</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="6" t="s">
         <v>92</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="6" t="s">
         <v>92</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="6" t="s">
         <v>92</v>
       </c>
@@ -11201,7 +11202,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6" t="s">
         <v>92</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
         <v>92</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="6" t="s">
         <v>92</v>
       </c>
@@ -11246,7 +11247,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="6" t="s">
         <v>92</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="6" t="s">
         <v>92</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
         <v>92</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6" t="s">
         <v>92</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>92</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="6" t="s">
         <v>92</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
         <v>92</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
         <v>92</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="6" t="s">
         <v>92</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="6" t="s">
         <v>92</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="6" t="s">
         <v>92</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6" t="s">
         <v>92</v>
       </c>
@@ -11426,7 +11427,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6" t="s">
         <v>92</v>
       </c>
@@ -11441,7 +11442,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
         <v>92</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="6" t="s">
         <v>92</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
         <v>92</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -11501,7 +11502,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="6" t="s">
         <v>92</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:5" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" s="37" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="55" t="s">
         <v>92</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
         <v>92</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="6" t="s">
         <v>92</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="6" t="s">
         <v>92</v>
       </c>
@@ -11577,14 +11578,14 @@
       <c r="B495" s="3">
         <v>1</v>
       </c>
-      <c r="D495" s="5" t="s">
+      <c r="C495" s="5" t="s">
         <v>601</v>
       </c>
       <c r="E495" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6"/>
       <c r="B496" s="3">
         <v>2</v>
@@ -11596,7 +11597,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6"/>
       <c r="B497" s="3">
         <v>3</v>
@@ -11608,7 +11609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="6" t="s">
         <v>92</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="6" t="s">
         <v>92</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6" t="s">
         <v>92</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6" t="s">
         <v>92</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6" t="s">
         <v>92</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>92</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="6" t="s">
         <v>92</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="6" t="s">
         <v>92</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="6" t="s">
         <v>92</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="6" t="s">
         <v>92</v>
       </c>
@@ -11758,7 +11759,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="6" t="s">
         <v>92</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="6" t="s">
         <v>92</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="6" t="s">
         <v>92</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="6" t="s">
         <v>92</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="6" t="s">
         <v>92</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="6" t="s">
         <v>92</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="6" t="s">
         <v>92</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="6"/>
       <c r="B515" s="3">
         <v>3</v>
@@ -11875,7 +11876,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="6" t="s">
         <v>92</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="6" t="s">
         <v>92</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="6" t="s">
         <v>92</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="6"/>
       <c r="B519" s="3">
         <v>3</v>
@@ -11930,7 +11931,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="6" t="s">
         <v>92</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="6" t="s">
         <v>92</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="6"/>
       <c r="B522" s="3">
         <v>3</v>
@@ -11972,7 +11973,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="6" t="s">
         <v>92</v>
       </c>
@@ -11987,7 +11988,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="6" t="s">
         <v>92</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6" t="s">
         <v>92</v>
       </c>
@@ -12017,7 +12018,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6" t="s">
         <v>92</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6" t="s">
         <v>92</v>
       </c>
@@ -12047,7 +12048,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6" t="s">
         <v>92</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6" t="s">
         <v>92</v>
       </c>
@@ -12077,7 +12078,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6" t="s">
         <v>92</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6" t="s">
         <v>92</v>
       </c>
@@ -12107,7 +12108,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
       <c r="B532" s="3">
         <v>3</v>
@@ -12119,7 +12120,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6" t="s">
         <v>92</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6" t="s">
         <v>92</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6" t="s">
         <v>92</v>
       </c>
@@ -12164,7 +12165,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
       <c r="B536" s="3">
         <v>2</v>
@@ -12176,7 +12177,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
       <c r="B537" s="3">
         <v>3</v>
@@ -12188,7 +12189,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6" t="s">
         <v>92</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6" t="s">
         <v>92</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6" t="s">
         <v>92</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
         <v>92</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
         <v>92</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
         <v>92</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
         <v>92</v>
       </c>
@@ -12291,7 +12292,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6" t="s">
         <v>92</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="B546" s="3">
         <v>3</v>
@@ -12316,7 +12317,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6" t="s">
         <v>92</v>
       </c>
@@ -12329,7 +12330,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6" t="s">
         <v>92</v>
       </c>
@@ -12344,7 +12345,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6" t="s">
         <v>92</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6" t="s">
         <v>92</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6" t="s">
         <v>92</v>
       </c>
@@ -12389,7 +12390,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6" t="s">
         <v>92</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6" t="s">
         <v>92</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6" t="s">
         <v>92</v>
       </c>
@@ -12434,7 +12435,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6" t="s">
         <v>92</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6" t="s">
         <v>92</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6" t="s">
         <v>92</v>
       </c>
@@ -12477,7 +12478,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
       <c r="B558" s="3">
         <v>3</v>
@@ -12489,7 +12490,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6" t="s">
         <v>92</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6" t="s">
         <v>92</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6" t="s">
         <v>92</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6" t="s">
         <v>92</v>
       </c>
@@ -12547,7 +12548,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6" t="s">
         <v>92</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6" t="s">
         <v>92</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6" t="s">
         <v>92</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6" t="s">
         <v>92</v>
       </c>
@@ -12607,7 +12608,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
       <c r="B567" s="3">
         <v>3</v>
@@ -12619,7 +12620,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6" t="s">
         <v>92</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6" t="s">
         <v>92</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6" t="s">
         <v>92</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
       <c r="B571" s="3">
         <v>3</v>
@@ -12676,7 +12677,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6" t="s">
         <v>92</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6" t="s">
         <v>92</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6" t="s">
         <v>92</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6" t="s">
         <v>92</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
       <c r="B576" s="3">
         <v>3</v>
@@ -12746,7 +12747,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6" t="s">
         <v>92</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6" t="s">
         <v>92</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
       <c r="B579" s="3">
         <v>2</v>
@@ -12788,7 +12789,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6"/>
       <c r="B580" s="3">
         <v>3</v>
@@ -12800,7 +12801,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6" t="s">
         <v>92</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6" t="s">
         <v>92</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6" t="s">
         <v>92</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6" t="s">
         <v>92</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6" t="s">
         <v>92</v>
       </c>
@@ -12875,7 +12876,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6" t="s">
         <v>92</v>
       </c>
@@ -12890,7 +12891,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6" t="s">
         <v>92</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="6" t="s">
         <v>92</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6" t="s">
         <v>92</v>
       </c>
@@ -12935,7 +12936,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6" t="s">
         <v>92</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="6" t="s">
         <v>92</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="6" t="s">
         <v>92</v>
       </c>
@@ -12980,7 +12981,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6" t="s">
         <v>92</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="6"/>
       <c r="B594" s="3">
         <v>3</v>
@@ -13005,7 +13006,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6" t="s">
         <v>92</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="6" t="s">
         <v>92</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6" t="s">
         <v>92</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="6"/>
       <c r="B598" s="3">
         <v>2</v>
@@ -13062,7 +13063,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
       <c r="B599" s="3">
         <v>3</v>
@@ -13074,7 +13075,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="6" t="s">
         <v>92</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6" t="s">
         <v>92</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6" t="s">
         <v>92</v>
       </c>
@@ -13119,7 +13120,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="6" t="s">
         <v>92</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6" t="s">
         <v>92</v>
       </c>
@@ -13149,7 +13150,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6" t="s">
         <v>92</v>
       </c>
@@ -13164,7 +13165,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="6" t="s">
         <v>92</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6" t="s">
         <v>92</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6" t="s">
         <v>92</v>
       </c>
@@ -13209,7 +13210,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6" t="s">
         <v>92</v>
       </c>
@@ -13224,7 +13225,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="6" t="s">
         <v>92</v>
       </c>
@@ -13239,7 +13240,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6" t="s">
         <v>92</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6" t="s">
         <v>92</v>
       </c>
@@ -13269,7 +13270,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6" t="s">
         <v>92</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="6" t="s">
         <v>92</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6" t="s">
         <v>92</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="6" t="s">
         <v>92</v>
       </c>
@@ -13334,14 +13335,14 @@
       <c r="B617" s="3">
         <v>1</v>
       </c>
-      <c r="D617" s="5" t="s">
+      <c r="C617" s="5" t="s">
         <v>723</v>
       </c>
       <c r="E617" s="7" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="6"/>
       <c r="B618" s="3">
         <v>2</v>
@@ -13353,7 +13354,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6"/>
       <c r="B619" s="3">
         <v>3</v>
@@ -13951,7 +13952,15 @@
       <c r="D710" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F619" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}"/>
+  <autoFilter ref="A1:F619" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="TITLE II"/>
+        <filter val="TITLE III"/>
+        <filter val="TITLE IV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
